--- a/docs/bytecode.xlsx
+++ b/docs/bytecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangsenyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A9FFF-A41F-4071-82BB-CA1FB71E5907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B789AE9-310B-4A4A-8CE0-8B9DD33DEE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2355" windowWidth="15195" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
+    <workbookView xWindow="14295" yWindow="3780" windowWidth="15195" windowHeight="11385" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="实例代码分析" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="常量类型和结构" sheetId="2" r:id="rId3"/>
     <sheet name="class文件结构" sheetId="4" r:id="rId4"/>
     <sheet name="访问标记" sheetId="5" r:id="rId5"/>
+    <sheet name="字段表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -400,12 +401,149 @@
         </r>
       </text>
     </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{DAAEA250-1B55-4653-AF1D-7A0F186F1386}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段计数器
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{875B3D48-0807-47E9-8CDA-3FA47656C416}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段访问标识
+02 标识私有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{8A55D0BD-0977-4A61-8E8D-BAE035A4B5A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段名索引
+指向常量池
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{585E2D31-36C4-4772-9686-2DE4C1F26E77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段描述符索引
+指向常量池</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{47655FAF-78BA-40FF-BB64-6BE0D04829FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字段属性计数器
+00标识没有属性
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="294">
   <si>
     <t>ca</t>
   </si>
@@ -2187,13 +2325,637 @@
   <si>
     <t>标志允许使用invokespecial字节码指令的新语义，JDK1.0.2之后编译出来的类的这个标志默认为真。（使用增强的方法调用父类方法）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>| ------------- | ------ | -------------------------- |</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">标志名称      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">标志值 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">含义                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_PUBLIC    | 0x0001 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>public           |</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_PRIVATE   | 0x0002 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>private          |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_PROTECTED | 0x0004 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>protected        |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_STATIC    | 0x0008 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>static           |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_FINAL     | 0x0010 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>final            |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_VOLATILE  | 0x0040 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>volatile         |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_TRANSTENT | 0x0080 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>transient        |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_SYNCHETIC | 0x1000 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">字段是否为由编译器自动产生 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| ACC_ENUM      | 0x4000 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段是否为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">enum  </t>
+    </r>
+  </si>
+  <si>
+    <t>| ------ | ---------------------------------------------------- |</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| B      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>byte                                     |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| C      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>char                                     |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| D      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>double                                   |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| F      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>float                                    |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| I      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int                                      |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| J      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>long                                     |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| S      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>short                                    |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| Z      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boolean                                  |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| V      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">类型                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| L      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象类型，比如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>`Ljava/lang/Object;`                 |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| [      | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组类型，代表一维数组。比如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>`double[][][] is [[[D` |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">标志符 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">含义                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2298,8 +3060,64 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2396,6 +3214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -2472,7 +3296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2512,52 +3336,16 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,14 +3357,8 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2601,6 +3383,60 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2918,18 +3754,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1FDCA6-FB80-4C1C-861B-846F7F745C58}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="20" width="4.75" style="1"/>
     <col min="21" max="21" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="4.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +3824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -3038,7 +3874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -3088,7 +3924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
@@ -3138,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -3188,7 +4024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3238,7 +4074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -3288,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="9" t="s">
         <v>46</v>
       </c>
@@ -3338,7 +4174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -3388,7 +4224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -3438,7 +4274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +4324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
@@ -3538,7 +4374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -3588,7 +4424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +4474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +4524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
@@ -3707,38 +4543,38 @@
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +4624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +4674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -3888,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -3938,7 +4774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +4824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -4088,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -4188,7 +5024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -4245,15 +5081,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4261,7 +5097,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4269,7 +5105,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -4277,7 +5113,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -4285,7 +5121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -4293,7 +5129,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>183</v>
       </c>
@@ -4301,7 +5137,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -4309,7 +5145,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -4317,7 +5153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -4325,7 +5161,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -4333,7 +5169,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -4341,7 +5177,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -4362,11 +5198,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1133E78-09BF-4A45-88A5-128C6B5A693B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
@@ -4376,656 +5212,620 @@
     <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="21" t="s">
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="21" t="s">
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="30">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="21" t="s">
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="21" t="s">
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="30">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="21" t="s">
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="30">
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="21" t="s">
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="30">
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="21" t="s">
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="30">
         <v>9</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="118.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="21" t="s">
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="21" t="s">
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="30">
         <v>10</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="104.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="21" t="s">
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="104.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="21" t="s">
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="30">
         <v>11</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="104.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="21" t="s">
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="104.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="21" t="s">
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="30">
         <v>12</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="21" t="s">
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="21" t="s">
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="30">
         <v>15</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="158.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="29" t="s">
+    <row r="32" spans="1:6" ht="47.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29" t="s">
+    <row r="33" spans="1:6" ht="47.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="30">
         <v>16</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="189.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29" t="s">
+    <row r="35" spans="1:6" ht="58.5">
+      <c r="A35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="30">
         <v>18</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="29" t="s">
+    <row r="37" spans="1:6" ht="63">
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="234" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29" t="s">
+    <row r="38" spans="1:6" ht="63">
+      <c r="A38" s="31"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="17" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -5033,6 +5833,42 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5044,10 +5880,10 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
@@ -5056,301 +5892,301 @@
     <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:5" ht="18.75">
+      <c r="A4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="A6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:5" ht="18.75">
+      <c r="A8" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:5" ht="18.75">
+      <c r="A9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:5" ht="18.75">
+      <c r="A10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:5" ht="18.75">
+      <c r="A11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:5" ht="18.75">
+      <c r="A12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:5" ht="18.75">
+      <c r="A13" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:5" ht="18.75">
+      <c r="A14" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:5" ht="18.75">
+      <c r="A15" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:5" ht="18.75">
+      <c r="A16" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:5" ht="18.75">
+      <c r="A17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:5" ht="18.75">
+      <c r="A18" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5367,121 +6203,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF51CC5-8066-4959-B287-5DA982DE956B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="18.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:3" s="24" customFormat="1">
+      <c r="A3" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:3" s="24" customFormat="1">
+      <c r="A4" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="38" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:3" s="24" customFormat="1" ht="47.25">
+      <c r="A5" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:3" s="24" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="38" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:3" s="24" customFormat="1" ht="31.5">
+      <c r="A7" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="38" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:3" s="24" customFormat="1" ht="31.5">
+      <c r="A8" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:3" s="24" customFormat="1">
+      <c r="A9" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:3" s="24" customFormat="1">
+      <c r="A10" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="28" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5493,4 +6329,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA64D8-BE9A-430E-A967-8B0F5E30434A}">
+  <dimension ref="C9:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:3" ht="15.75">
+      <c r="C9" s="43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="15">
+      <c r="C10" s="44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="15">
+      <c r="C11" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="15">
+      <c r="C12" s="44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="15">
+      <c r="C13" s="44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="15">
+      <c r="C14" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="15">
+      <c r="C15" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="15">
+      <c r="C16" s="44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15">
+      <c r="C17" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15">
+      <c r="C18" s="44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="15">
+      <c r="C19" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/bytecode.xlsx
+++ b/docs/bytecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangsenyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B789AE9-310B-4A4A-8CE0-8B9DD33DEE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4E36C-362C-4328-93B6-0A77013E0C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="3780" windowWidth="15195" windowHeight="11385" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
+    <workbookView xWindow="16995" yWindow="1830" windowWidth="15195" windowHeight="11385" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="实例代码分析" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="class文件结构" sheetId="4" r:id="rId4"/>
     <sheet name="访问标记" sheetId="5" r:id="rId5"/>
     <sheet name="字段表" sheetId="6" r:id="rId6"/>
+    <sheet name="方法表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -114,6 +115,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{A6833F4D-F585-4906-949F-E02E8D5B602A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{FF6188DD-1B9D-4869-8E59-1A4635E4DBEC}">
       <text>
         <r>
@@ -192,6 +219,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{AE0E245A-699B-40E0-A1AE-3491D463C2A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5 &lt;init&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C76561B0-EC2D-43B3-969E-0AC81FB6F713}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+6 ()V</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J4" authorId="0" shapeId="0" xr:uid="{8D038288-72C3-4714-BE3A-C0419094469E}">
       <text>
         <r>
@@ -240,7 +319,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-类或接口的符号引用</t>
+8 类或接口的符号引用</t>
         </r>
       </text>
     </comment>
@@ -296,6 +375,136 @@
         </r>
       </text>
     </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{C7B75101-B3BC-4A99-949A-0D9AD27FD306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{2C786B7B-38EF-45A8-B6D8-F03FB0175DDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{B01DAA7B-A995-4EFF-8E89-5DD3D63F2600}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{96320743-A252-43F5-A6E3-B3C1D2048127}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+13 Code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{73596BE3-DBFF-4159-97CA-CDB721A50ED5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+14</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O15" authorId="0" shapeId="0" xr:uid="{742EFD91-773D-4A68-A6A2-5ED9041954AD}">
       <text>
         <r>
@@ -535,6 +744,513 @@
 字段属性计数器
 00标识没有属性
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{42B88DE4-86DF-4E3A-A6DC-5C47EDF117DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方法计数器
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{F7235F77-671E-4E8F-B2B5-1DDD91B33BE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+访问标识 public</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{CA04FDE8-38A1-42F0-AA40-E28874804629}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方法名索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{CF1036B0-3A7C-4AAD-BED6-EDE09E854F70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述符索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{A008FE2F-C1F8-4714-8BE2-AC48BFA51D57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性计数器
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{BB42905F-8492-4C20-98A5-EEA787A9382D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性名索引
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{2C9DF35C-DC13-4A07-8EBF-A94F8CECF0DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性长度 0X38 = 56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{518661C8-2444-4DE5-9111-1772413041F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+操作数栈最大深度 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{F5F4A19E-785A-4A8A-9144-A32E2DCC0998}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+局部变量表长度 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{36722167-4443-4B39-983D-6B528A2A77B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字节码指令长度10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{EB32BB0A-788E-48AC-A543-8D4082B8523B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+aload_0 0x2a
+aload_1 0x2b
+aload_2 0x2c
+aload_3 0x2d</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{E56DC717-F1E7-4CEE-8B88-B7AAC9C7BE27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+invokespecial 0xb7
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{52A92B0C-DEB3-49E7-ABAC-70BF7318DCF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+invokespecial 调用的方法的索引 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{387F6ABE-B0CE-4BCF-9ECD-844240197E66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+iconst_m1 0x2
+iconst_0 0x3
+iconst_1 0x4  !!!
+iconst_2 0x5
+iconst_3 0x6
+iconst_4 0x7
+iconst_5 0x8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{9249B88F-21DB-4510-8BDF-5991A05955ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+putfield 0xb5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{1D56630D-F23A-4FE9-B8F1-827EA188F239}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+putfield操作的索引
+num
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{E84B09D0-43E9-4B33-92F6-2082466EB114}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字节码指令 return</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{617D6C0A-3469-40BF-8915-C12B5CAE63D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+异常表的长度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{1038AE8B-3474-4752-8D8C-DE4A28740BE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性集合计数器 2个</t>
         </r>
       </text>
     </comment>
@@ -543,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="372">
   <si>
     <t>ca</t>
   </si>
@@ -2950,12 +3666,324 @@
       <t>|</t>
     </r>
   </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptor_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述符索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法表访问标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_PUBLIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_PROIVATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public,方法可以从包外访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_PROTECTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_STATIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_FINAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_SYNCHRONIZED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_BRIDGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private,方法只能本类中访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protected,方法在自身和子类可以访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static,静态方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final,方法不能被重写(覆盖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized,方法由管程同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge,方法由编译器产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数+返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_name_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstantValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deprecated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类，方法，字段等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java代码编译成的字节码指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final关键字定义的常量池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被声明为deprecated的方法和字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes[]属性表 通用格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数栈深度的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量表所需的存续空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节码指令的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储字节码指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常表长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性集合计数器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_table_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_locals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3116,8 +4144,47 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3220,8 +4287,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3290,13 +4387,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3438,12 +4572,85 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3755,7 +4962,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="14.25"/>
@@ -4575,122 +5782,122 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="M17" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="65" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="53" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -4799,10 +6006,10 @@
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="66" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -6335,8 +7542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA64D8-BE9A-430E-A967-8B0F5E30434A}">
   <dimension ref="C9:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6468,4 +7675,537 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAA589-E8CF-4B3F-AC79-083AD281E712}">
+  <dimension ref="B1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75">
+      <c r="B1" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="48">
+        <v>1</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="48">
+        <v>1</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="48">
+        <v>1</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="48"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="57"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="57"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="57"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" s="60"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="61">
+        <v>1</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="60"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="61">
+        <v>1</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="60"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="61">
+        <v>1</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="61">
+        <v>1</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="61">
+        <v>1</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="61">
+        <v>1</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="60"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="61">
+        <v>1</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="60"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/bytecode.xlsx
+++ b/docs/bytecode.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangsenyan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4E36C-362C-4328-93B6-0A77013E0C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE269833-1B92-4F9D-8221-63234EC32604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16995" yWindow="1830" windowWidth="15195" windowHeight="11385" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
+    <workbookView xWindow="1830" yWindow="615" windowWidth="15195" windowHeight="11385" xr2:uid="{F44189DD-95E4-47EC-ACB9-F33D8C993ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="实例代码分析" sheetId="1" r:id="rId1"/>
     <sheet name="基本类型" sheetId="3" r:id="rId2"/>
-    <sheet name="常量类型和结构" sheetId="2" r:id="rId3"/>
+    <sheet name="方法表" sheetId="7" r:id="rId3"/>
     <sheet name="class文件结构" sheetId="4" r:id="rId4"/>
-    <sheet name="访问标记" sheetId="5" r:id="rId5"/>
+    <sheet name="常量类型和结构" sheetId="2" r:id="rId5"/>
     <sheet name="字段表" sheetId="6" r:id="rId6"/>
-    <sheet name="方法表" sheetId="7" r:id="rId7"/>
+    <sheet name="访问标记" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -505,6 +505,196 @@
         </r>
       </text>
     </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{708811C9-64B8-482F-B51C-8057864B9ED1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字符长度15
+LineNumberTable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{5ADCE17B-E11E-419F-BAA8-52C7FFDC4E10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{9894017A-9E94-4632-9F78-46841177F52A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+长度18=LocalVariableTable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{B95CC7DE-3564-473F-928F-0F5D8682EE58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+16 
+this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{8AFA44BA-903D-4AF4-8EEB-0D670D2C36BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+17
+长度32
+Lcom/jvm/jvmLearn/bytecode/Demo;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{CF5A283F-9562-48A8-8C8B-76A4B4B973FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+18
+长度为3
+add</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{54800CBF-7BF5-4500-8E26-38F4D012BCC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+19
+长度3
+()I</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O15" authorId="0" shapeId="0" xr:uid="{742EFD91-773D-4A68-A6A2-5ED9041954AD}">
       <text>
         <r>
@@ -900,7 +1090,7 @@
           </rPr>
           <t xml:space="preserve">
 属性名索引
-</t>
+Code</t>
         </r>
       </text>
     </comment>
@@ -1254,12 +1444,1012 @@
         </r>
       </text>
     </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{CF100AB6-DE3F-4C2B-8A4E-D84DED5F9650}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性名字索引14
+LineNumberTable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{33EF862B-E1CE-4EE0-9285-A5C202687A63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性长度10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{545999FA-928D-43C9-963F-67FEF0875646}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+line_number_table_length=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{739BECBD-A882-44F6-B38D-6ED3A0C9B743}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+start_pc=0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{695B3DCF-16FF-4C46-8199-24AE20FDE430}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+line_number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{31CA4CCC-E0DA-4B17-B5DD-8AA7BC6B68C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+start_pc=4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{B9ABF7B5-B6EC-49F1-ADB0-3ECE774178D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+line_number</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{9BC8BBA3-6202-44FE-A844-9020C0743005}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+LocalVariableTable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{F1967110-BA9F-43E6-9AFC-CAAF20E00B32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+attribute_length=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{47C5CB5A-B912-4494-9DC6-99E3E5B9E2CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+local_variable_table_length=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{8A9731ED-1139-4E97-A7F6-EA5C3043F192}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+start_pc=0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{13F36722-6FF0-46A3-9A5C-C0C37569430E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+length=10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{6B6E4F26-10BD-4F72-BB33-F53D1DFF382F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+name_index=16
+为this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{BC305617-AFA1-4402-99DA-B434F5C442D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+descriptor_index=17
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{E70A3019-BD6C-4FB9-98EE-621B3E601C8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+index=0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{F2475A76-EB9D-4A12-9367-DB7B36C839B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第二个方法开始
+访问标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{7ABB7EB7-2EC5-4708-9862-1B81A0EDF7C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方法名索引=18
+add</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{92154830-B434-46A1-91F7-D6E2E63AB92D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述符索引19
+()I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P21" authorId="0" shapeId="0" xr:uid="{12BA0B31-00C1-43D1-81B9-6A84E2015C74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性计数器1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{DC3DD964-8125-4588-9C43-F4DE0FF92F01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性名索引=13
+Code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{B2A786E9-0AF7-4636-8FA9-1C290FF08659}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性长度3*16+13=61</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{AF25B821-912C-4485-BB74-C6783C295AFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+操作数栈最大深度=3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{4B9F0C5A-F85A-44DF-BFD6-7FBB420E22DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+局部变量表长度=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{0D56E57B-F828-4F5F-AF9D-8FB4FAB714E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+字节码指令长度=15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{896DAA3E-92C1-414B-AAFA-39FA084D4317}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+aload_0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{CEC8289B-E1EC-4AEC-A0EF-363685811921}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+aload_0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{A584C9B4-F297-41AA-BFFE-7AD52476624A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+异常表长度=0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{AC773FF1-E9E0-40F1-B8E0-2AFFFBFFCE73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性集合计数=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{0009AE87-17AC-47C0-A132-93F54EEA13C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性名字索引14
+LineNumberTable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{733F626E-0FC4-4B61-BE00-2C7E88452AB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性长度10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{52DA4A15-5EA4-4469-87D8-51C828C5145F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+line_number_table_length=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{7AE7DE22-AC1E-43F1-8888-9C7D7B070D71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+start_pc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{0CA701CA-46E8-4DFE-BB67-0AB8DC61C1A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+line_number=6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{E2E1C837-968C-4261-A5CF-51B0E2CCDE64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+start_pc=10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{0A49A7CA-2C2B-45E8-BF74-0C753461357B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+linenumber=7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{A2CFE788-285F-4246-93E2-7FD261544F72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+name_index=16
+this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{74EA3D7F-6EEE-4CDB-BA51-A479129AE551}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+descriptor_index=17
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{0AF94B06-AD6B-4C3A-805C-F5C89A3C574A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangsenyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+index=0
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="389">
   <si>
     <t>ca</t>
   </si>
@@ -1520,11 +2710,11 @@
   </si>
   <si>
     <t>常量类型和结构</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1537,7 +2727,7 @@
       </rPr>
       <t>常量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1550,7 +2740,7 @@
       </rPr>
       <t>描述</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,7 +2753,7 @@
       </rPr>
       <t>细节</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +2766,7 @@
       </rPr>
       <t>长度</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1589,11 +2779,11 @@
       </rPr>
       <t>细节描述</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_utf8_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1608,15 +2798,15 @@
       </rPr>
       <t>编码的字符串</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>tag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>u1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1636,15 +2826,15 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>length</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>u2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1659,11 +2849,11 @@
       </rPr>
       <t>编码的字符串占用的字符数</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bytes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,11 +2899,11 @@
       </rPr>
       <t>编码的字符串</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Integer_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1725,7 +2915,7 @@
       </rPr>
       <t>整型字面量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1745,11 +2935,11 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>u4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1778,11 +2968,11 @@
       </rPr>
       <t>值</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Float_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1794,7 +2984,7 @@
       </rPr>
       <t>浮点型字面量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1814,7 +3004,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1843,11 +3033,11 @@
       </rPr>
       <t>值</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Long_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1859,7 +3049,7 @@
       </rPr>
       <t>长整型字面量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1879,11 +3069,11 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>u8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1912,11 +3102,11 @@
       </rPr>
       <t>值</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Double_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1928,7 +3118,7 @@
       </rPr>
       <t>双精度浮点型字面量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1948,7 +3138,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1977,11 +3167,11 @@
       </rPr>
       <t>值</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Class_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1993,7 +3183,7 @@
       </rPr>
       <t>类或接口的符号引用</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2013,11 +3203,11 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2029,11 +3219,11 @@
       </rPr>
       <t>指向全限定名常量项的索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_String_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2045,7 +3235,7 @@
       </rPr>
       <t>字符串类型字面量</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2065,7 +3255,7 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2077,11 +3267,11 @@
       </rPr>
       <t>指向字符串字面量的索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Fieldref_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2093,7 +3283,7 @@
       </rPr>
       <t>字段的符号引用</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2113,7 +3303,7 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2142,7 +3332,7 @@
       </rPr>
       <t>的索引项</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2171,11 +3361,11 @@
       </rPr>
       <t>的索引项</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_Methodref_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2187,7 +3377,7 @@
       </rPr>
       <t>类中方法的符号引用</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2207,7 +3397,7 @@
       </rPr>
       <t>10</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2236,7 +3426,7 @@
       </rPr>
       <t>的索引项</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2265,11 +3455,11 @@
       </rPr>
       <t>的索引项</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_InterfaceMethodref_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2281,7 +3471,7 @@
       </rPr>
       <t>接口中方法的符号引用</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2301,7 +3491,7 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2330,11 +3520,11 @@
       </rPr>
       <t>的索引项</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_NameAndType_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2346,7 +3536,7 @@
       </rPr>
       <t>字段或方法的符号引用</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2366,7 +3556,7 @@
       </rPr>
       <t>12</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2378,7 +3568,7 @@
       </rPr>
       <t>指向该字段或方法名称常量项的索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2390,11 +3580,11 @@
       </rPr>
       <t>指向该字段或方法描述符常量项的索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_MethodHandle_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2406,7 +3596,7 @@
       </rPr>
       <t>表示方法句柄</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2426,11 +3616,11 @@
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>reference_kind</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2459,11 +3649,11 @@
       </rPr>
       <t>之间，它决定了方法句柄的类型方法句柄类型的值表示方法句柄的字节码行为</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>reference_index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2475,11 +3665,11 @@
       </rPr>
       <t>值必须是对常量池的有效索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_MethodType_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2491,7 +3681,7 @@
       </rPr>
       <t>标志方法类型</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2511,11 +3701,11 @@
       </rPr>
       <t>16</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>descriptor_index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2544,11 +3734,11 @@
       </rPr>
       <t>结构，表示方法的描述符</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CONSTANT_InvokeDynamic_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2560,7 +3750,7 @@
       </rPr>
       <t>表示一个动态方法调用点</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2580,11 +3770,11 @@
       </rPr>
       <t>18</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bootstrap_method_attr</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2630,11 +3820,11 @@
       </rPr>
       <t>数组的有效索引</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name_and_type_index</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2663,7 +3853,7 @@
       </rPr>
       <t>结构，表示方法名和方法描述符</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>常量池</t>
@@ -2818,143 +4008,143 @@
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>major_version</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主版本号(大版本)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2个字节</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>access_flags</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>访问标识</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>interfaces_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>接口计数器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>field_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fields</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字段表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>n个字节</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fields_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>attributes_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>属性计数器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>minor_version</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>副版本号(小版本)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>constant_pool_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>常量池计数器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>super_class</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>父类索引</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>interfaces</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>接口索引集合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>method_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>methods</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>方法表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>methods_count</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>attribute_info</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>attributes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>属性表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>class文件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>标志名称</t>
@@ -3978,12 +5168,69 @@
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LineNumberTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_number_table_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_number_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalVariableTable_attribute {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    u2 attribute_name_index;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    u4 attribute_length;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    u2 local_variable_table_length;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {   u2 start_pc;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        u2 length;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        u2 name_index;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        u2 descriptor_index;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        u2 index;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } local_variable_table[local_variable_table_length];</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3996,13 +5243,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4183,8 +5423,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4301,13 +5602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFF66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4317,8 +5618,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4424,26 +5737,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4455,13 +5774,10 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4470,106 +5786,106 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4578,16 +5894,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4617,13 +5933,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4638,6 +5954,54 @@
     <xf numFmtId="49" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4646,9 +6010,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFF3300"/>
-      <color rgb="FFFF66FF"/>
-      <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4961,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1FDCA6-FB80-4C1C-861B-846F7F745C58}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="14.25"/>
@@ -4973,1275 +6337,1275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="O7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="O15" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="73" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="E16" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="I16" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="M16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="47" t="s">
+      <c r="O16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18">
+      <c r="A17" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="53" t="s">
+      <c r="G17" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="47" t="s">
+      <c r="I17" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="58" t="s">
+      <c r="K17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="65" t="s">
+      <c r="M17" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="47" t="s">
+      <c r="E18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="67" t="s">
+      <c r="K18" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="53" t="s">
+      <c r="C19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="I19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="I20" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="O20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="66" t="s">
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="K21" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="O21" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="C22" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="K22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="N23" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="D24" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="J24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="J25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="61" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -6291,10 +7655,10 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -6402,6 +7766,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAA589-E8CF-4B3F-AC79-083AD281E712}">
+  <dimension ref="B1:F72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75">
+      <c r="B1" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="44">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="E30" s="53"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="53"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="53"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" s="56"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="57">
+        <v>1</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="56"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="57">
+        <v>1</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="57">
+        <v>1</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="57">
+        <v>1</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="57">
+        <v>1</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D46" s="57">
+        <v>1</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="57">
+        <v>1</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="56"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="53"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" thickBot="1"/>
+    <row r="62" spans="2:6" ht="15" thickBot="1">
+      <c r="B62" s="67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" thickBot="1">
+      <c r="B63" s="67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" thickBot="1">
+      <c r="B64" s="67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15" thickBot="1">
+      <c r="B65" s="67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15" thickBot="1">
+      <c r="B66" s="67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15" thickBot="1">
+      <c r="B67" s="67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15" thickBot="1">
+      <c r="B68" s="67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15" thickBot="1">
+      <c r="B69" s="67" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15" thickBot="1">
+      <c r="B70" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15" thickBot="1">
+      <c r="B71" s="67" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="15" thickBot="1">
+      <c r="B72" s="67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EF923-BE21-4FD4-9C40-3C91482E0A86}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75">
+      <c r="A4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="A6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75">
+      <c r="A8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75">
+      <c r="A9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75">
+      <c r="A10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75">
+      <c r="A11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75">
+      <c r="A12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75">
+      <c r="A13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75">
+      <c r="A14" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75">
+      <c r="A15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75">
+      <c r="A16" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75">
+      <c r="A17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75">
+      <c r="A18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1133E78-09BF-4A45-88A5-128C6B5A693B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -6420,614 +8783,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="30">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="30">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="30">
-        <v>4</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="26">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="30">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="30">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="31"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="30">
+      <c r="A15" s="26">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="31"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="15" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="30">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="15" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="30">
+      <c r="A19" s="26">
         <v>9</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="15" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="30">
+      <c r="A22" s="26">
         <v>10</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="31"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="30">
+      <c r="A25" s="26">
         <v>11</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="15" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="15" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="30">
+      <c r="A28" s="26">
         <v>12</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="31"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="15" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="30">
+      <c r="A31" s="26">
         <v>15</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="47.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="17" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="47.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="17" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="30">
+      <c r="A34" s="26">
         <v>16</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="58.5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="17" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="30">
+      <c r="A36" s="26">
         <v>18</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="63">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="63">
-      <c r="A38" s="31"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="17" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7082,331 +9445,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4EF923-BE21-4FD4-9C40-3C91482E0A86}">
-  <dimension ref="A1:E18"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA64D8-BE9A-430E-A967-8B0F5E30434A}">
+  <dimension ref="C9:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75">
-      <c r="A2" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75">
-      <c r="A5" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75">
-      <c r="A6" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75">
-      <c r="A8" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75">
-      <c r="A9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75">
-      <c r="A10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75">
-      <c r="A11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75">
-      <c r="A12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75">
-      <c r="A13" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75">
-      <c r="A14" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75">
-      <c r="A15" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75">
-      <c r="A16" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75">
-      <c r="A17" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75">
-      <c r="A18" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>224</v>
+    <row r="9" spans="3:3" ht="15.75">
+      <c r="C9" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="15">
+      <c r="C10" s="40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="15">
+      <c r="C11" s="40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="15">
+      <c r="C12" s="40" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="15">
+      <c r="C13" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="15">
+      <c r="C14" s="40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="15">
+      <c r="C15" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="15">
+      <c r="C16" s="40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="15">
+      <c r="C17" s="40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="15">
+      <c r="C18" s="40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="15">
+      <c r="C19" s="40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="41" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF51CC5-8066-4959-B287-5DA982DE956B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7416,115 +9594,115 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="18.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="24" customFormat="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:3" s="20" customFormat="1">
+      <c r="A3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="24" customFormat="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:3" s="20" customFormat="1">
+      <c r="A4" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="24" customFormat="1" ht="47.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:3" s="20" customFormat="1" ht="47.25">
+      <c r="A5" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="24" customFormat="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:3" s="20" customFormat="1">
+      <c r="A6" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="24" customFormat="1" ht="31.5">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:3" s="20" customFormat="1" ht="31.5">
+      <c r="A7" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="24" customFormat="1" ht="31.5">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="31.5">
+      <c r="A8" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="24" customFormat="1">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1">
+      <c r="A9" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="24" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:3" s="20" customFormat="1">
+      <c r="A10" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7536,676 +9714,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA64D8-BE9A-430E-A967-8B0F5E30434A}">
-  <dimension ref="C9:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="3:3" ht="15.75">
-      <c r="C9" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" ht="15">
-      <c r="C10" s="44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" ht="15">
-      <c r="C11" s="44" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" ht="15">
-      <c r="C12" s="44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" ht="15">
-      <c r="C13" s="44" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" ht="15">
-      <c r="C14" s="44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" ht="15">
-      <c r="C15" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" ht="15">
-      <c r="C16" s="44" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="15">
-      <c r="C17" s="44" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="15">
-      <c r="C18" s="44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="15">
-      <c r="C19" s="44" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="45" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAA589-E8CF-4B3F-AC79-083AD281E712}">
-  <dimension ref="B1:F49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15.75">
-      <c r="B1" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="48">
-        <v>1</v>
-      </c>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="48">
-        <v>1</v>
-      </c>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="48">
-        <v>1</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="48">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="52"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="E13" s="51"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="51"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="E18" s="51"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="48">
-        <v>1</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D25" s="48">
-        <v>1</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E29" s="48"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="E30" s="57"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="48" t="s">
-        <v>347</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="E31" s="57"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="E32" s="57"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="F39" s="60"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="61">
-        <v>1</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="F40" s="60"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" s="61">
-        <v>1</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="F41" s="60"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="D42" s="61">
-        <v>1</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="F42" s="60"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="61">
-        <v>1</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="F43" s="60"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="D44" s="61">
-        <v>1</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="F44" s="60"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" s="60"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="D46" s="61">
-        <v>1</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="60"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="60"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="61">
-        <v>1</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>